--- a/Risultati/DID_selling_matrix_error.xlsx
+++ b/Risultati/DID_selling_matrix_error.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marzio\Documents\GitHub\Advanced_Microeconomics_Project\Risultati\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marziodecorato/Documents/GitHub/Advanced_Microeconomics_Project/Risultati/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516AD50F-6C42-4CA8-A795-36399A5835AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC13283-3E33-6941-9779-D9CCFF867319}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="5865" windowWidth="28800" windowHeight="14115" xr2:uid="{D9CE23F2-D0EF-4158-85F1-E96BCA33BA34}"/>
+    <workbookView xWindow="0" yWindow="3040" windowWidth="20860" windowHeight="14120" xr2:uid="{D9CE23F2-D0EF-4158-85F1-E96BCA33BA34}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,33 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t xml:space="preserve">
-Furniture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Clothing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Photo-optics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Domestic-appliances</t>
-  </si>
-  <si>
-    <t>Toys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Stationery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Footwear</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -73,6 +46,27 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>Games</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>Appliances</t>
+  </si>
+  <si>
+    <t>Household K.</t>
+  </si>
+  <si>
+    <t>Household T.</t>
+  </si>
+  <si>
+    <t>Footwear</t>
+  </si>
+  <si>
+    <t>Photo-optics</t>
   </si>
 </sst>
 </file>
@@ -111,17 +105,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
@@ -130,9 +121,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -148,13 +136,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D68187A7-D89E-48BE-B81F-45B7AF410A5D}" name="Tabella1" displayName="Tabella1" ref="A1:D8" totalsRowShown="0">
-  <autoFilter ref="A1:D8" xr:uid="{11413D35-A622-411E-A7F6-F545F9695FBE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{014E5A79-8F38-8149-B10B-9EF4B39C4C55}" name="Tabella13" displayName="Tabella13" ref="A1:D8" totalsRowShown="0">
+  <autoFilter ref="A1:D8" xr:uid="{BC6B7951-378C-0E40-AB1F-DEEBFFD92DE2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{FBD5CBE4-B6B2-47AF-AD4D-BB470EA310AB}" name="Type" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{D95CC74E-B7EC-4660-9CCE-C1DDD805F2A1}" name="High" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{316151FA-6ADE-4A82-A651-566D3B6BE556}" name="Medium " dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{CE569316-0A15-4085-BCA6-7F8058643EF1}" name="Low" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{2CCABC71-9E49-E048-811A-4E8ADAF6151D}" name="Type"/>
+    <tableColumn id="2" xr3:uid="{1139ED28-6583-5444-826B-509E11AD456D}" name="High" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{EC9D7337-E5CB-C944-8068-5618F90CBC45}" name="Medium " dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{DD78A996-85E3-D640-BAFC-CFD9DCC21F9D}" name="Low" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -460,125 +448,125 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.77</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.39</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.45</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B5" s="1">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3.52</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B7" s="1">
+        <v>3.51</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>13.683</v>
-      </c>
-      <c r="C2" s="2">
-        <v>9.8529999999999998</v>
-      </c>
-      <c r="D2" s="2">
-        <v>5.7169999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>20.768000000000001</v>
-      </c>
-      <c r="C3" s="2">
-        <v>14.954000000000001</v>
-      </c>
-      <c r="D3" s="2">
-        <v>8.6780000000000008</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>18.498999999999999</v>
-      </c>
-      <c r="C4" s="2">
-        <v>13.321</v>
-      </c>
-      <c r="D4" s="2">
-        <v>7.73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>22.882000000000001</v>
-      </c>
-      <c r="C5" s="2">
-        <v>16.477</v>
-      </c>
-      <c r="D5" s="2">
-        <v>9.5609999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2">
-        <v>12.805</v>
-      </c>
-      <c r="C6" s="2">
-        <v>9.2210000000000001</v>
-      </c>
-      <c r="D6" s="2">
-        <v>5.351</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
-        <v>21.875</v>
-      </c>
-      <c r="C7" s="2">
-        <v>15.752000000000001</v>
-      </c>
-      <c r="D7" s="2">
-        <v>9.14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2">
-        <v>17.657</v>
-      </c>
-      <c r="C8" s="2">
-        <v>12.714</v>
-      </c>
-      <c r="D8" s="2">
-        <v>7.3780000000000001</v>
+      <c r="B8" s="1">
+        <v>3.47</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.79</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Risultati/DID_selling_matrix_error.xlsx
+++ b/Risultati/DID_selling_matrix_error.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marziodecorato/Documents/GitHub/Advanced_Microeconomics_Project/Risultati/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marzio\Documents\GitHub\Advanced_Microeconomics_Project\Risultati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC13283-3E33-6941-9779-D9CCFF867319}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8A1C90-2378-45E5-8C98-C4EAF2BE3CBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3040" windowWidth="20860" windowHeight="14120" xr2:uid="{D9CE23F2-D0EF-4158-85F1-E96BCA33BA34}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="15600" xr2:uid="{D9CE23F2-D0EF-4158-85F1-E96BCA33BA34}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>Appliances</t>
   </si>
   <si>
-    <t>Household K.</t>
-  </si>
-  <si>
     <t>Household T.</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>Photo-optics</t>
+  </si>
+  <si>
+    <t>Homeware</t>
   </si>
 </sst>
 </file>
@@ -448,16 +448,16 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -471,99 +471,99 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1">
+        <v>2.77</v>
+      </c>
+      <c r="C2" s="1">
         <v>2.0099999999999998</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2.77</v>
       </c>
       <c r="D2" s="1">
         <v>2.77</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
+        <v>2.39</v>
+      </c>
+      <c r="C3" s="1">
         <v>1.73</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2.39</v>
       </c>
       <c r="D3" s="1">
         <v>2.39</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1">
+        <v>3.45</v>
+      </c>
+      <c r="C4" s="1">
         <v>2.5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3.45</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
+        <v>3.52</v>
+      </c>
+      <c r="C5" s="1">
         <v>2.5499999999999998</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3.52</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="C6" s="1">
         <v>1.5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2.0699999999999998</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="C7" s="1">
         <v>3.51</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4.8499999999999996</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1">
+        <v>4.79</v>
+      </c>
+      <c r="C8" s="1">
         <v>3.47</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4.79</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
